--- a/data/trans_dic/P2A_psíq_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_psíq_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,27 +724,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,98</t>
+          <t>1,27; 3,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 4,85</t>
+          <t>2,35; 5,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,07; 2,99</t>
+          <t>1,1; 3,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,55; 6,01</t>
+          <t>2,66; 5,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,35</t>
+          <t>0,91; 2,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,32 +754,32 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,46</t>
+          <t>1,54; 3,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,14; 5,22</t>
+          <t>3,14; 5,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,37</t>
+          <t>1,24; 2,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,42; 4,05</t>
+          <t>2,41; 4,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,94</t>
+          <t>1,54; 2,99</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,2; 4,94</t>
+          <t>3,19; 5,02</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,07</t>
+          <t>0,22; 1,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,86</t>
+          <t>0,79; 1,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,27</t>
+          <t>0,44; 1,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,68</t>
+          <t>1,31; 2,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,19</t>
+          <t>0,38; 1,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,16</t>
+          <t>1,02; 2,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,04</t>
+          <t>0,87; 2,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 23,16</t>
+          <t>2,56; 26,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 0,93</t>
+          <t>0,38; 0,96</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,83</t>
+          <t>1,03; 1,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 1,51</t>
+          <t>0,76; 1,49</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 17,14</t>
+          <t>2,13; 14,32</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,82</t>
+          <t>0,0; 0,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,13</t>
+          <t>0,39; 3,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,12</t>
+          <t>0,0; 1,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,97</t>
+          <t>1,3; 4,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,88</t>
+          <t>0,51; 2,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,37</t>
+          <t>0,64; 3,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,03</t>
+          <t>0,35; 2,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,36</t>
+          <t>1,37; 3,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,33</t>
+          <t>0,32; 1,42</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,7</t>
+          <t>0,78; 2,61</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,2</t>
+          <t>0,27; 1,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,17</t>
+          <t>1,58; 3,19</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,61; 1,31</t>
+          <t>0,63; 1,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,41; 2,45</t>
+          <t>1,39; 2,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,37</t>
+          <t>0,65; 1,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 2,94</t>
+          <t>1,81; 2,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,56</t>
+          <t>0,79; 1,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 2,61</t>
+          <t>1,65; 2,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,05</t>
+          <t>1,19; 2,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,79; 13,7</t>
+          <t>2,81; 19,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,28</t>
+          <t>0,77; 1,27</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,66; 2,38</t>
+          <t>1,63; 2,39</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,61</t>
+          <t>1,04; 1,59</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,49; 10,45</t>
+          <t>2,5; 10,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_psíq_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_psíq_R-Estudios-trans_dic.xlsx
@@ -671,12 +671,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>3,9%</t>
         </is>
       </c>
     </row>
@@ -739,12 +739,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,66; 5,76</t>
+          <t>2,57; 5,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,28</t>
+          <t>0,97; 2,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -759,12 +759,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,14; 5,16</t>
+          <t>3,05; 4,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,39</t>
+          <t>1,27; 2,43</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,19; 5,02</t>
+          <t>3,13; 4,91</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -826,32 +826,32 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>1,44%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11,54%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,6%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
           <t>1,39%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>7,54%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,6%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>1,39%</t>
-        </is>
-      </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>6,56%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,62</t>
+          <t>1,1; 2,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,09</t>
+          <t>0,9; 2,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 26,2</t>
+          <t>2,41; 40,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +914,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 1,49</t>
+          <t>0,78; 1,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 14,32</t>
+          <t>1,95; 22,61</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,23%</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,1</t>
+          <t>1,14; 4,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,91</t>
+          <t>0,67; 3,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,32</t>
+          <t>1,42; 3,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,42</t>
+          <t>0,38; 1,54</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,19</t>
+          <t>1,56; 3,27</t>
         </is>
       </c>
     </row>
@@ -1091,12 +1091,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1106,17 +1106,17 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>5,29%</t>
         </is>
       </c>
     </row>
@@ -1159,12 +1159,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 2,97</t>
+          <t>1,58; 2,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,57</t>
+          <t>0,84; 1,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,17 +1174,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,08</t>
+          <t>1,23; 2,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,81; 19,52</t>
+          <t>2,71; 30,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 1,27</t>
+          <t>0,79; 1,31</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,59</t>
+          <t>1,05; 1,6</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,5; 10,49</t>
+          <t>2,36; 16,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_psíq_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_psíq_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad psíquica</t>
+          <t>Hogares con personas con limitación por discapacidad psíquica</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,05</t>
+          <t>1,24; 2,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,04</t>
+          <t>2,28; 4,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,02</t>
+          <t>1,08; 3,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,56</t>
+          <t>2,47; 5,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,36</t>
+          <t>1,02; 2,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,06</t>
+          <t>2,07; 4,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,48</t>
+          <t>1,55; 3,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,05; 4,99</t>
+          <t>2,92; 4,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,43</t>
+          <t>1,3; 2,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,41; 4,02</t>
+          <t>2,31; 3,92</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,54; 2,99</t>
+          <t>1,54; 2,93</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 4,91</t>
+          <t>3,05; 4,81</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,04</t>
+          <t>0,22; 1,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,88</t>
+          <t>0,8; 1,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,29</t>
+          <t>0,45; 1,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 2,49</t>
+          <t>1,02; 2,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,21</t>
+          <t>0,37; 1,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,2</t>
+          <t>1,04; 2,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,11</t>
+          <t>0,93; 2,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,41; 40,08</t>
+          <t>2,39; 35,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 0,96</t>
+          <t>0,38; 0,94</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,84</t>
+          <t>1,03; 1,82</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,52</t>
+          <t>0,72; 1,47</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,95; 22,61</t>
+          <t>1,97; 22,64</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,93</t>
+          <t>0,0; 0,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,09</t>
+          <t>0,43; 3,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,35</t>
+          <t>0,0; 1,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,02</t>
+          <t>1,18; 4,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,25</t>
+          <t>0,66; 2,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,37</t>
+          <t>0,83; 3,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,02</t>
+          <t>0,35; 1,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,58</t>
+          <t>1,4; 3,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,54</t>
+          <t>0,38; 1,58</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,61</t>
+          <t>0,85; 2,6</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,28</t>
+          <t>0,28; 1,27</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 3,27</t>
+          <t>1,48; 3,18</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,35</t>
+          <t>0,6; 1,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,38</t>
+          <t>1,39; 2,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,37</t>
+          <t>0,64; 1,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 2,75</t>
+          <t>1,53; 2,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 1,64</t>
+          <t>0,85; 1,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,62</t>
+          <t>1,64; 2,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,1</t>
+          <t>1,23; 2,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,71; 30,91</t>
+          <t>2,66; 25,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,31</t>
+          <t>0,81; 1,31</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 2,39</t>
+          <t>1,65; 2,35</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,6</t>
+          <t>1,04; 1,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,36; 16,34</t>
+          <t>2,35; 15,38</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con limitación por discapacidad psíquica</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>20263</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>32739</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>13894</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>19705</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>21125</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>39116</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>23730</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>29828</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>41388</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>71856</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>37623</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>49533</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>12755; 30886</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>22259; 47551</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8144; 23086</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12701; 28377</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>13452; 31305</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>27656; 53857</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15384; 35306</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>22040; 37370</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>30572; 57356</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>53527; 90654</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>26903; 51289</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>38762; 61083</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8569</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>24434</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>16024</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>39077</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>10993</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>27231</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>28553</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>258168</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>19562</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>51666</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>44576</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>297245</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3675; 17125</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>15765; 37156</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>9359; 27444</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>23285; 55720</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5891; 19681</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>18345; 38638</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>18437; 41400</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>53489; 803325</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>12520; 30952</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>38487; 67610</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>29256; 59903</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>89057; 1025074</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>909</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6338</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>14203</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7358</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7867</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5006</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15007</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>8267</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>14205</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>6990</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>29210</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4556</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2065; 15715</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7034</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7629; 25879</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3163; 13750</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3811; 16589</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1935; 10339</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9249; 25812</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3949; 16242</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7971; 24419</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3020; 13905</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>19365; 41566</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>29741</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>63511</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>31901</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>72985</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>39476</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>74215</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>57288</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>303003</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>69216</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>137726</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>89190</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>375988</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>19763; 41995</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>47549; 82701</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>21686; 45478</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>52826; 93891</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>28622; 53787</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>58124; 93043</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>43475; 75482</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>97332; 930432</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>53688; 87187</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>115084; 163879</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>71935; 113556</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>167210; 1092537</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>